--- a/TabelleBW.xlsx
+++ b/TabelleBW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mellifed\WORKSPACE R&amp;D\Prv\DAPT0824-bulid-week-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melli\Documents\1 - Workspace\EPICODE\DAPT0824-bulid-week-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901475D1-4A68-4E37-9B2D-3C39A99572A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE09186-2817-48FE-A570-A8648F7E3DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-2880" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>SALES</t>
   </si>
@@ -203,16 +203,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,9 +436,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -556,6 +558,27 @@
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>18</v>
@@ -568,14 +591,23 @@
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
